--- a/files/20212/MAT112_KBA1111E.xlsx
+++ b/files/20212/MAT112_KBA1111E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kamansor.github.io\files\20212\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2350D122-13E0-42CB-8F2D-3A19E8536A35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C710DA3-C548-4E2A-BFFF-4D8C33E3409F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{453A2133-262E-4057-BFC1-0A5FAE8CD09A}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,8 +631,8 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1">
-        <f>D2*0.2+E2*0.2+F2*0.2+G2*0.4+H2*0.15+I3*0.15</f>
-        <v>12</v>
+        <f>D2*0.02+E2*0.02+F2*0.02+G2*0.04+H2*0.15+I2*0.15</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.45">
@@ -656,8 +656,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J24" si="0">D3*0.2+E3*0.2+F3*0.2+G3*0.4+H3*0.15+I4*0.15</f>
-        <v>60</v>
+        <f t="shared" ref="J3:J24" si="0">D3*0.02+E3*0.02+F3*0.02+G3*0.04+H3*0.15+I3*0.15</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -682,7 +682,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -707,7 +707,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -732,7 +732,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -757,7 +757,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -782,7 +782,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -807,7 +807,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -832,7 +832,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -857,7 +857,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>3.6000000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -882,7 +882,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -907,7 +907,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -932,7 +932,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -957,7 +957,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -982,7 +982,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -1007,7 +1007,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -1032,7 +1032,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -1057,7 +1057,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -1082,7 +1082,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -1107,7 +1107,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -1132,7 +1132,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -1157,7 +1157,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
